--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>0.2277105031748096</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.786357334662233</v>
+        <v>-1.795859688097525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04392862678698047</v>
+        <v>0.04269459579588073</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08154430746750385</v>
+        <v>-0.07892986170702342</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2504758441791867</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.833966691024215</v>
+        <v>-1.838327510999778</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02322870132275513</v>
+        <v>0.02037500465583698</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06230664576696685</v>
+        <v>-0.06256006284549626</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2930609485207994</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.935164315380439</v>
+        <v>-1.939169407034589</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01990099662000502</v>
+        <v>-0.01776033061503609</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07011535462773956</v>
+        <v>-0.06665566059912065</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.344867422726868</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.974561226977035</v>
+        <v>-1.983378095085001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03859404770457199</v>
+        <v>-0.03744029168865858</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06483766851401836</v>
+        <v>-0.06245302954524781</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3953124567760409</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.926999878198253</v>
+        <v>-1.941602053586559</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01974989078436016</v>
+        <v>-0.02138372263227027</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08357636615310304</v>
+        <v>-0.07901958079693755</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4316676660042124</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.797043350476743</v>
+        <v>-1.814390615212598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02147996607899006</v>
+        <v>0.0197296568161037</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0699595267347308</v>
+        <v>-0.06877271631727007</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4478034459935823</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.523157727293939</v>
+        <v>-1.544357403829177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648772535583866</v>
+        <v>0.05648142927935346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06488646310677867</v>
+        <v>-0.06444101569545058</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.441922450010132</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.112913253613734</v>
+        <v>-1.139803009272474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04664695780946676</v>
+        <v>0.04968796275181969</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04919034442916822</v>
+        <v>-0.04941070710615032</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4232311645261626</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6060893276792007</v>
+        <v>-0.634133626363415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03949461492227643</v>
+        <v>0.04369881999527057</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02224943314898565</v>
+        <v>-0.02070846842923227</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4072331078697854</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09951960583275771</v>
+        <v>-0.1268335596446885</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05658351224191755</v>
+        <v>-0.05134045454886496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01615978144899374</v>
+        <v>0.01787231425296889</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4126562696444455</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4877988709555318</v>
+        <v>0.4585048010890047</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2321826594333436</v>
+        <v>-0.2311076043734952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0758135321271685</v>
+        <v>0.07848779061425837</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4557162571159115</v>
       </c>
       <c r="E13" t="n">
-        <v>1.073450461494364</v>
+        <v>1.039783766508864</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5087504111988448</v>
+        <v>-0.5131875711017915</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1661606556707067</v>
+        <v>0.1695054463034706</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5465301163642389</v>
       </c>
       <c r="E14" t="n">
-        <v>1.666816319746691</v>
+        <v>1.629327906334672</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8160713485563189</v>
+        <v>-0.8235920119178936</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2659062473875313</v>
+        <v>0.2735890347185999</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6834665722313414</v>
       </c>
       <c r="E15" t="n">
-        <v>2.358369490785754</v>
+        <v>2.313350969897433</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.152408541405411</v>
+        <v>-1.160992454683424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3891503705662538</v>
+        <v>0.39582578565969</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8514336709366007</v>
       </c>
       <c r="E16" t="n">
-        <v>2.907332269626189</v>
+        <v>2.856721258799886</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.501252103182797</v>
+        <v>-1.510165773466723</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5198584924181843</v>
+        <v>0.5234079055367172</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.029416434581126</v>
       </c>
       <c r="E17" t="n">
-        <v>3.405858753762785</v>
+        <v>3.355091915043474</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.842491578585179</v>
+        <v>-1.851426498127243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6360321217040241</v>
+        <v>0.6436173198495722</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.202784441109403</v>
       </c>
       <c r="E18" t="n">
-        <v>3.812489279540483</v>
+        <v>3.766836428946279</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.14702492807883</v>
+        <v>-2.16165543581132</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7931491363731374</v>
+        <v>0.7983323813395806</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.364046249974551</v>
       </c>
       <c r="E19" t="n">
-        <v>4.156259777689917</v>
+        <v>4.114192542654036</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.497946982105894</v>
+        <v>-2.515267488516686</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9362809911494941</v>
+        <v>0.9419506080244193</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.505738198681015</v>
       </c>
       <c r="E20" t="n">
-        <v>4.47038047765141</v>
+        <v>4.426065543310311</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.8154714984172</v>
+        <v>-2.837225229683136</v>
       </c>
       <c r="G20" t="n">
-        <v>1.053556433820245</v>
+        <v>1.063172116632271</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.621427806281797</v>
       </c>
       <c r="E21" t="n">
-        <v>4.679251241028891</v>
+        <v>4.642834734638478</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.085596002909656</v>
+        <v>-3.110027927710486</v>
       </c>
       <c r="G21" t="n">
-        <v>1.159162098725672</v>
+        <v>1.171809342365323</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.707332227798741</v>
       </c>
       <c r="E22" t="n">
-        <v>4.846726875535284</v>
+        <v>4.810618876892646</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.296680624181246</v>
+        <v>-3.327180392694689</v>
       </c>
       <c r="G22" t="n">
-        <v>1.240678974998713</v>
+        <v>1.256880353814261</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.764909768261178</v>
       </c>
       <c r="E23" t="n">
-        <v>4.957429214355483</v>
+        <v>4.923091987224308</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.436516482917599</v>
+        <v>-3.467050879851711</v>
       </c>
       <c r="G23" t="n">
-        <v>1.316003660048557</v>
+        <v>1.333922293725444</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.798352184011404</v>
       </c>
       <c r="E24" t="n">
-        <v>5.027353439800144</v>
+        <v>4.992855662718597</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.550702913062797</v>
+        <v>-3.582637400005306</v>
       </c>
       <c r="G24" t="n">
-        <v>1.37635627521659</v>
+        <v>1.395272837016381</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.815882143240947</v>
       </c>
       <c r="E25" t="n">
-        <v>5.016999542020228</v>
+        <v>4.986315613269593</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.652583661717665</v>
+        <v>-3.684253713447796</v>
       </c>
       <c r="G25" t="n">
-        <v>1.415377783252755</v>
+        <v>1.434464339117647</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.82195831448148</v>
       </c>
       <c r="E26" t="n">
-        <v>5.001399438509018</v>
+        <v>4.974497877706868</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.672618564103141</v>
+        <v>-3.702679968291303</v>
       </c>
       <c r="G26" t="n">
-        <v>1.438626045674366</v>
+        <v>1.45919060549416</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.820384130983648</v>
       </c>
       <c r="E27" t="n">
-        <v>4.954422837833798</v>
+        <v>4.932007231527355</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.63285175801304</v>
+        <v>-3.657593764580766</v>
       </c>
       <c r="G27" t="n">
-        <v>1.435370974131516</v>
+        <v>1.455072971472837</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.8096580922565</v>
       </c>
       <c r="E28" t="n">
-        <v>4.803071455206009</v>
+        <v>4.781224069802356</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.566199918321562</v>
+        <v>-3.588774500559257</v>
       </c>
       <c r="G28" t="n">
-        <v>1.386362314770698</v>
+        <v>1.407509261665373</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.791204421258795</v>
       </c>
       <c r="E29" t="n">
-        <v>4.672563233782484</v>
+        <v>4.652727444815853</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.478078457815544</v>
+        <v>-3.499685018293638</v>
       </c>
       <c r="G29" t="n">
-        <v>1.343434091275464</v>
+        <v>1.363271454261217</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.764419709237213</v>
       </c>
       <c r="E30" t="n">
-        <v>4.515376962272033</v>
+        <v>4.500587478608292</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.344432429273705</v>
+        <v>-3.371167931058558</v>
       </c>
       <c r="G30" t="n">
-        <v>1.291467849985722</v>
+        <v>1.310754306279019</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.732189656975856</v>
       </c>
       <c r="E31" t="n">
-        <v>4.357277759671229</v>
+        <v>4.345074389423784</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.221479499632423</v>
+        <v>-3.249491530924651</v>
       </c>
       <c r="G31" t="n">
-        <v>1.231352911705006</v>
+        <v>1.246337573739789</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.694482632667239</v>
       </c>
       <c r="E32" t="n">
-        <v>4.222510242505463</v>
+        <v>4.208037136685104</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.080631546601074</v>
+        <v>-3.110296297970668</v>
       </c>
       <c r="G32" t="n">
-        <v>1.160103362160209</v>
+        <v>1.176436958581947</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.652161859971047</v>
       </c>
       <c r="E33" t="n">
-        <v>4.016419196896201</v>
+        <v>4.003224194602337</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952633098666463</v>
+        <v>-2.985962166550444</v>
       </c>
       <c r="G33" t="n">
-        <v>1.091864911194461</v>
+        <v>1.106932996242672</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.602645560353426</v>
       </c>
       <c r="E34" t="n">
-        <v>3.762123815697104</v>
+        <v>3.747765613272599</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.876135769371249</v>
+        <v>-2.908009656577588</v>
       </c>
       <c r="G34" t="n">
-        <v>1.033574261075332</v>
+        <v>1.048132363928242</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.54630293610854</v>
       </c>
       <c r="E35" t="n">
-        <v>3.520940013778442</v>
+        <v>3.506758101495523</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.779489421304266</v>
+        <v>-2.814952859116731</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9340757903605519</v>
+        <v>0.9514293511728921</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.480242370025545</v>
       </c>
       <c r="E36" t="n">
-        <v>3.256755070440214</v>
+        <v>3.246171365868588</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.721374274317162</v>
+        <v>-2.75158835836009</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8630025309573407</v>
+        <v>0.8796855596240066</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.406711241487191</v>
       </c>
       <c r="E37" t="n">
-        <v>3.013115798692323</v>
+        <v>2.999725618027418</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.62402670073164</v>
+        <v>-2.653578122724499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8147194944114421</v>
+        <v>0.8279223668009122</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.325821877893852</v>
       </c>
       <c r="E38" t="n">
-        <v>2.71930151941473</v>
+        <v>2.710749873528703</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.541752721261253</v>
+        <v>-2.567009432081643</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7460119857475458</v>
+        <v>0.7606015689828818</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.242566560773588</v>
       </c>
       <c r="E39" t="n">
-        <v>2.461766806863996</v>
+        <v>2.454797050194877</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.422002920531817</v>
+        <v>-2.451312730589557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6765599660392743</v>
+        <v>0.6911039027200926</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.15788387651511</v>
       </c>
       <c r="E40" t="n">
-        <v>2.22506738542192</v>
+        <v>2.219043614244703</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.322993182754201</v>
+        <v>-2.354083995447693</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6285382166675115</v>
+        <v>0.6398900425703321</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.075560136722253</v>
       </c>
       <c r="E41" t="n">
-        <v>2.025116588404852</v>
+        <v>2.018412840967232</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.230862695546229</v>
+        <v>-2.259905709362909</v>
       </c>
       <c r="G41" t="n">
-        <v>0.564456750201118</v>
+        <v>0.575382016922066</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9953008262454183</v>
       </c>
       <c r="E42" t="n">
-        <v>1.764019870582615</v>
+        <v>1.762519830360015</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.134416247907651</v>
+        <v>-2.162590403169372</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4961285801454551</v>
+        <v>0.5060386045331642</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9188359260368989</v>
       </c>
       <c r="E43" t="n">
-        <v>1.547231791024992</v>
+        <v>1.545615273387416</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.052172174800568</v>
+        <v>-2.080726455680084</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4435154169968583</v>
+        <v>0.4529233292848725</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8451788147785092</v>
       </c>
       <c r="E44" t="n">
-        <v>1.310326173078026</v>
+        <v>1.312899694341352</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.963644617361254</v>
+        <v>-1.992154038695813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4025767536709487</v>
+        <v>0.4079709171996461</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.775407864667495</v>
       </c>
       <c r="E45" t="n">
-        <v>1.100920243199303</v>
+        <v>1.102764993609468</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.887268487538381</v>
+        <v>-1.914305413984963</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3451030194757754</v>
+        <v>0.3495039769389321</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7093288705920124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8981472298977424</v>
+        <v>0.9018603410048908</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.820889740164449</v>
+        <v>-1.84758667848083</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2748986186275221</v>
+        <v>0.2799055734523796</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6494745503442173</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7350552386441717</v>
+        <v>0.7402274654767658</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.777733283896626</v>
+        <v>-1.801668605664685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2397822520313037</v>
+        <v>0.2429601966372098</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5954861062538207</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5761595823679886</v>
+        <v>0.5803606394027401</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.708656667748785</v>
+        <v>-1.734077076557791</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1987806279405421</v>
+        <v>0.1998934594593017</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5477954451842301</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4459787569216939</v>
+        <v>0.451675132121681</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.661368411287549</v>
+        <v>-1.686252866585752</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1396006570178789</v>
+        <v>0.1438489346262694</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5043688187602502</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3548225875498071</v>
+        <v>0.3553121074965316</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.593854796127159</v>
+        <v>-1.621404852807285</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1110589682913335</v>
+        <v>0.1125653045904183</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.465196267074465</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2215944610846743</v>
+        <v>0.2234533776669304</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.547720295681836</v>
+        <v>-1.572378092226572</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07322269665350757</v>
+        <v>0.07517920242128433</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4287892159681664</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1151750282935348</v>
+        <v>0.1168135821988088</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.498829687755115</v>
+        <v>-1.526205028312777</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04495488725406852</v>
+        <v>0.04569625026020115</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3957725347123758</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0179006465971523</v>
+        <v>0.02274862549075841</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.488486808109048</v>
+        <v>-1.511403739505625</v>
       </c>
       <c r="G53" t="n">
-        <v>0.005985321848906091</v>
+        <v>0.006525210407512227</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3662609250136546</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07650115020285646</v>
+        <v>-0.07027433055899093</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.469693019800718</v>
+        <v>-1.49317266303316</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01590928412838648</v>
+        <v>-0.01478858251402039</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3407678783849536</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1480717996483987</v>
+        <v>-0.1421046931595478</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.454824048171351</v>
+        <v>-1.479301619526698</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04583453566255515</v>
+        <v>-0.04462096692003232</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3185093166054141</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2236593458915004</v>
+        <v>-0.2142183792019388</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.461537239723699</v>
+        <v>-1.485449738214498</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07435261410228101</v>
+        <v>-0.07441400084801174</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2993633294742669</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2756240131621213</v>
+        <v>-0.2679365037736887</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.456136780118516</v>
+        <v>-1.481000773168142</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1167991877463967</v>
+        <v>-0.1122424023902312</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2825047950801155</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3647874743264413</v>
+        <v>-0.3546429210896584</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.455541800890664</v>
+        <v>-1.480302695687845</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.134363667120991</v>
+        <v>-0.1311400759605672</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2676310364208225</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4413792447689328</v>
+        <v>-0.430005382598414</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.480845732284694</v>
+        <v>-1.502857602686523</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.156977599836718</v>
+        <v>-0.1542419546038974</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2543471098783714</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5008661494202497</v>
+        <v>-0.4939782417454379</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.497275343872831</v>
+        <v>-1.518392384404201</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1942299103805414</v>
+        <v>-0.189087589911252</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2423833640549949</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.57571390667634</v>
+        <v>-0.5673873455246593</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.528993403186161</v>
+        <v>-1.548701696603967</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2148715971372786</v>
+        <v>-0.2104879538844562</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2321090184473062</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6321834166721235</v>
+        <v>-0.6230682719406712</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.55153807906055</v>
+        <v>-1.574335385003909</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2249264312841474</v>
+        <v>-0.2218555199784898</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2225476454525573</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6866255900396716</v>
+        <v>-0.6764684446499183</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.598896379372685</v>
+        <v>-1.620452571238898</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2602962149588952</v>
+        <v>-0.2562635779701228</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2145606899420904</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7455820502471102</v>
+        <v>-0.7338996803288165</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.643543431748379</v>
+        <v>-1.663561806933081</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2778276399319422</v>
+        <v>-0.2756948440225798</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2072420738958242</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8277411263216422</v>
+        <v>-0.8128823858165637</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.68796854742797</v>
+        <v>-1.708090020865117</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3109749086074134</v>
+        <v>-0.3056090774228994</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1997994740203907</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9146883685631709</v>
+        <v>-0.893661047121715</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.726970380225119</v>
+        <v>-1.74710838086304</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3270440698167721</v>
+        <v>-0.3237150193752212</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1911169664651404</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9665641037534384</v>
+        <v>-0.9459845907519925</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.753271452732492</v>
+        <v>-1.775339987822689</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3521748591074589</v>
+        <v>-0.3480887054685624</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1797259133686337</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.022757373393434</v>
+        <v>-0.9946304387053508</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.78423634389628</v>
+        <v>-1.807520808757681</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3802569342505845</v>
+        <v>-0.374475562018047</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1640215605335718</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.051503684605748</v>
+        <v>-1.020360929281253</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.811442477398402</v>
+        <v>-1.840158095237851</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.397445223055188</v>
+        <v>-0.3923658633507507</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1449416809182953</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.04884359229075</v>
+        <v>-1.01780314820914</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.847185303604898</v>
+        <v>-1.873906639217659</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4269911359811232</v>
+        <v>-0.4188314208563004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1244108012401803</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.043588729454287</v>
+        <v>-1.017659125459541</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.871179651090006</v>
+        <v>-1.898773780305528</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4370491181662346</v>
+        <v>-0.4286029315613351</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1007728443262528</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.054990136959429</v>
+        <v>-1.024536015000503</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.916669590705156</v>
+        <v>-1.943206766080725</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4412848036216547</v>
+        <v>-0.4332305477779591</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07650496330171026</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.021967215794541</v>
+        <v>-0.9896093177084017</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.929109063820795</v>
+        <v>-1.959990531971154</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4532646631538743</v>
+        <v>-0.4454276219489182</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.05029001817887704</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9642188152627003</v>
+        <v>-0.9341794473422373</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.971846831002352</v>
+        <v>-2.000499488076949</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4580449592252644</v>
+        <v>-0.4480105873269726</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.02256726611307354</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9072275179282057</v>
+        <v>-0.8762571176974934</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.994118414559196</v>
+        <v>-2.024298657191015</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4637791108841629</v>
+        <v>-0.4542499991238085</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.00477844977939225</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8144469608231366</v>
+        <v>-0.7849482684708404</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.035009070301906</v>
+        <v>-2.060738773868247</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4529120828707029</v>
+        <v>-0.4447193133443328</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0302319006481521</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7267851139005373</v>
+        <v>-0.6938739480932613</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.035697703667475</v>
+        <v>-2.058291174134625</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4350422437865762</v>
+        <v>-0.4285966354848499</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05133328132187855</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6131897279353881</v>
+        <v>-0.5812686201554101</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.047678350209255</v>
+        <v>-2.066723981576994</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.426969099713425</v>
+        <v>-0.4205549717941247</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06908944258264198</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4548371082560537</v>
+        <v>-0.4233614478874038</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.035107446496987</v>
+        <v>-2.052098195901868</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4005869652213042</v>
+        <v>-0.3947741126063407</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.08377845936829911</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3192416570324846</v>
+        <v>-0.2856756992707474</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.00212230179101</v>
+        <v>-2.019061108564887</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3824605610204054</v>
+        <v>-0.3759960644892235</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.09519018100325059</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.114644355569336</v>
+        <v>-0.08300657123119219</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.96325268660005</v>
+        <v>-1.982598955619957</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3588959207554128</v>
+        <v>-0.3510368432827585</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1026583644960738</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06196216385972245</v>
+        <v>0.09135382291177019</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.918770119222532</v>
+        <v>-1.93869877531732</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3469349494526489</v>
+        <v>-0.3351455462341068</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1053060912549512</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2628589463686931</v>
+        <v>0.2948776433341918</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.865268422279961</v>
+        <v>-1.883079235647039</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3025979788438511</v>
+        <v>-0.2933348763149966</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1008303174747669</v>
       </c>
       <c r="E84" t="n">
-        <v>0.487260556416047</v>
+        <v>0.5128131828312423</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.79005706660685</v>
+        <v>-1.804987424981948</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2774719116105283</v>
+        <v>-0.2656604721242879</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0919823588359549</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6766276488614902</v>
+        <v>0.6991172340666344</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.675349636132502</v>
+        <v>-1.689750337073282</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2573606692976694</v>
+        <v>-0.2430056149114071</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.08017831296765646</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8858368263500498</v>
+        <v>0.9107582710976035</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.592471233319535</v>
+        <v>-1.60317377633482</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2232217685757788</v>
+        <v>-0.209020968063404</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06587402520189749</v>
       </c>
       <c r="E87" t="n">
-        <v>1.104730943491973</v>
+        <v>1.125920388902922</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.482136427964161</v>
+        <v>-1.487848543355361</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1788202631830077</v>
+        <v>-0.167603802924619</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05462601805061568</v>
       </c>
       <c r="E88" t="n">
-        <v>1.283372669644873</v>
+        <v>1.300172175726515</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.320772709705778</v>
+        <v>-1.329401482528748</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1558380099928963</v>
+        <v>-0.1427925395155562</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04844556115389736</v>
       </c>
       <c r="E89" t="n">
-        <v>1.421255170651692</v>
+        <v>1.435780219103054</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.138041681875738</v>
+        <v>-1.147259924859636</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.127982593603238</v>
+        <v>-0.1150378603496612</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04956666716876049</v>
       </c>
       <c r="E90" t="n">
-        <v>1.53901226317356</v>
+        <v>1.552325316901521</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9548030328790796</v>
+        <v>-0.96294779482225</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09913869320540294</v>
+        <v>-0.08811268926069163</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05915986628714898</v>
       </c>
       <c r="E91" t="n">
-        <v>1.607888191883436</v>
+        <v>1.624716030309261</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7639382612397189</v>
+        <v>-0.7700785098319128</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1036750163129915</v>
+        <v>-0.09205875519779246</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.07790608614328955</v>
       </c>
       <c r="E92" t="n">
-        <v>1.682421145315266</v>
+        <v>1.692935593045554</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5696035644474507</v>
+        <v>-0.5710563840964112</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09576084817109166</v>
+        <v>-0.08495992896072635</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1065639071530097</v>
       </c>
       <c r="E93" t="n">
-        <v>1.698754741737003</v>
+        <v>1.705622187163238</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003603064678369</v>
+        <v>-0.4003083638368339</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09596074859949685</v>
+        <v>-0.08728632922200877</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1425799072612026</v>
       </c>
       <c r="E94" t="n">
-        <v>1.687596520186102</v>
+        <v>1.693428261030521</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2170248552952179</v>
+        <v>-0.2161796070270795</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1082569859750978</v>
+        <v>-0.1029478194789506</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1836684915435996</v>
       </c>
       <c r="E95" t="n">
-        <v>1.657373779038008</v>
+        <v>1.662128890803457</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07172872422707277</v>
+        <v>-0.07299895765796242</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.115754039049853</v>
+        <v>-0.1094768507941059</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.225934387435465</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606998871079901</v>
+        <v>1.606573885917149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02480429446317712</v>
+        <v>0.02881646920337257</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1220375233820853</v>
+        <v>-0.1188595787761793</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2653629437451753</v>
       </c>
       <c r="E97" t="n">
-        <v>1.524531287257594</v>
+        <v>1.518855374306183</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08672305865690356</v>
+        <v>0.09122790138206614</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1403559579157828</v>
+        <v>-0.1388858240564879</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2968516918696087</v>
       </c>
       <c r="E98" t="n">
-        <v>1.383318161790102</v>
+        <v>1.381870064198506</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1375103596247916</v>
+        <v>0.1408598723149194</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1493262928880754</v>
+        <v>-0.1476295002753132</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3170472499825025</v>
       </c>
       <c r="E99" t="n">
-        <v>1.255833631098596</v>
+        <v>1.254272204130266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1433783029090005</v>
+        <v>0.1494146662391887</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1627196215912229</v>
+        <v>-0.1617578959081082</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3200685595502234</v>
       </c>
       <c r="E100" t="n">
-        <v>1.125286059197038</v>
+        <v>1.124794965231192</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1562899817610301</v>
+        <v>0.1646842257349266</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1698420581151086</v>
+        <v>-0.1689007946805707</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3102524884215801</v>
       </c>
       <c r="E101" t="n">
-        <v>1.019164116019825</v>
+        <v>1.016168757631989</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1701492201240826</v>
+        <v>0.1774998894205568</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.194086674640503</v>
+        <v>-0.192914030395134</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2857468518000945</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9005979776696076</v>
+        <v>0.8987894296992331</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1582134331272595</v>
+        <v>0.1694991502269854</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1902980106155323</v>
+        <v>-0.1920593380122677</v>
       </c>
     </row>
   </sheetData>
